--- a/Documents/标准底层函数.xlsx
+++ b/Documents/标准底层函数.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>函数名</t>
   </si>
@@ -48,13 +48,531 @@
   </si>
   <si>
     <t>参数4</t>
+  </si>
+  <si>
+    <t>BasicTimerAdd</t>
+  </si>
+  <si>
+    <t>添加一个定时器</t>
+  </si>
+  <si>
+    <t>INT8S</t>
+  </si>
+  <si>
+    <t>定时器号，-1代表失败</t>
+  </si>
+  <si>
+    <t>INT32U TimeUS</t>
+  </si>
+  <si>
+    <t>时间（μS）</t>
+  </si>
+  <si>
+    <t>BL SingleShot</t>
+  </si>
+  <si>
+    <t>单次</t>
+  </si>
+  <si>
+    <t>void (*pCallBack)()</t>
+  </si>
+  <si>
+    <t>回调函数</t>
+  </si>
+  <si>
+    <t>BasicTimerInit</t>
+  </si>
+  <si>
+    <t>初始化</t>
+  </si>
+  <si>
+    <t>BasicTimerDel</t>
+  </si>
+  <si>
+    <t>删除一个定时器</t>
+  </si>
+  <si>
+    <t>INT8U index</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>SystemInit</t>
+  </si>
+  <si>
+    <t>系统初始化</t>
+  </si>
+  <si>
+    <t>IdleProcess</t>
+  </si>
+  <si>
+    <t>空闲处理</t>
+  </si>
+  <si>
+    <t>HSPI初始化</t>
+  </si>
+  <si>
+    <t>HSPIInit</t>
+  </si>
+  <si>
+    <t>HSPI等待数据发送完成（仅用于无中断模式）</t>
+  </si>
+  <si>
+    <t>HSPIWaitTransmit</t>
+  </si>
+  <si>
+    <t>HSPI设置回调函数</t>
+  </si>
+  <si>
+    <t>HSPISetTxCallBack</t>
+  </si>
+  <si>
+    <t>void (*pFunc)()</t>
+  </si>
+  <si>
+    <t>HSPIWriteByte</t>
+  </si>
+  <si>
+    <t>HSPI发送数据</t>
+  </si>
+  <si>
+    <t>INT8U dat</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>UARTInit</t>
+  </si>
+  <si>
+    <t>UART初始化</t>
+  </si>
+  <si>
+    <t>UART发送数据</t>
+  </si>
+  <si>
+    <t>UART等待数据发送完成（仅用于无中断模式）</t>
+  </si>
+  <si>
+    <t>UARTWaitTransmit</t>
+  </si>
+  <si>
+    <t>UARTSetTxCallBack</t>
+  </si>
+  <si>
+    <t>UARTWriteByte</t>
+  </si>
+  <si>
+    <t>GPIOInit</t>
+  </si>
+  <si>
+    <t>以conf.h初始化GPIO</t>
+  </si>
+  <si>
+    <t>写GPIO部分位</t>
+  </si>
+  <si>
+    <t>读GPIO</t>
+  </si>
+  <si>
+    <t>读GPIO部分位</t>
+  </si>
+  <si>
+    <t>GPIOWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIOWritePin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIOWritePinF</t>
+  </si>
+  <si>
+    <t>GPIORead</t>
+  </si>
+  <si>
+    <t>GPIOReadPin</t>
+  </si>
+  <si>
+    <t>GPIOISR</t>
+  </si>
+  <si>
+    <t>GPIO组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT8U data</t>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN0~7及它们的组合</t>
+  </si>
+  <si>
+    <t>INT8U PinMask</t>
+  </si>
+  <si>
+    <t>值(0/1)</t>
+  </si>
+  <si>
+    <t>BL Statu</t>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UART</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置回调函数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GPIO</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>enum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> e_GPIOGroup Group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GPIO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快速版本，但不支持开漏输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PIN0~7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及它们的组合</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(0/1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(0/1)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中断处理程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应由用户定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT8U PinMask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT8U PinMask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AADCInit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AADCStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSP430F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IICStartWrite</t>
+  </si>
+  <si>
+    <t>IICStartRead</t>
+  </si>
+  <si>
+    <t>IICStop</t>
+  </si>
+  <si>
+    <t>IICNoAckModeSet</t>
+  </si>
+  <si>
+    <t>IICWriteByte</t>
+  </si>
+  <si>
+    <t>IICReadByte</t>
+  </si>
+  <si>
+    <t>IIC写入开始</t>
+  </si>
+  <si>
+    <t>IIC读取开始</t>
+  </si>
+  <si>
+    <t>IIC停止</t>
+  </si>
+  <si>
+    <t>IICNoAck模式</t>
+  </si>
+  <si>
+    <t>IIC写入字节</t>
+  </si>
+  <si>
+    <t>IIC读取一个字节</t>
+  </si>
+  <si>
+    <t>IICWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT32U IICDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT8U *dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT16U length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IICRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IICWriteRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT8U dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IICAbort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC读写取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IICAddrSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIC设置地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT8U Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +587,24 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +629,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -377,15 +919,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="35.25" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,10 +976,557 @@
       </c>
       <c r="M1" t="s">
         <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="15">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="15">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="15">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="O24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="15">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="15">
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>